--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d7d1c\Documents\Linux\queues\benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d7d1c\Documents\Linux\queues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BCF0CF-BE86-49DF-83F8-EEB44F5F3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C4FBB-84BE-4846-87E0-9992A347E804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compare tests" sheetId="4" r:id="rId1"/>
+    <sheet name="Compare tests" sheetId="8" r:id="rId1"/>
+    <sheet name="Compare tests (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Compare tests (3)" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>transport capacity = 1 048 576</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Objects
 count</t>
@@ -77,6 +76,15 @@
   </si>
   <si>
     <t>S vs B</t>
+  </si>
+  <si>
+    <t>queue capacity = 64</t>
+  </si>
+  <si>
+    <t>queue capacity = 1 048 576</t>
+  </si>
+  <si>
+    <t>queue capacity = 8 192, consume time = 1 mcs</t>
   </si>
 </sst>
 </file>
@@ -146,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -177,9 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -350,73 +355,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>375</c:v>
+                  <c:v>2451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>710</c:v>
+                  <c:v>4622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>990</c:v>
+                  <c:v>6703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1407</c:v>
+                  <c:v>8841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1729</c:v>
+                  <c:v>11655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1873</c:v>
+                  <c:v>13043</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3506</c:v>
+                  <c:v>15107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2458</c:v>
+                  <c:v>17852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2590</c:v>
+                  <c:v>19256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3328</c:v>
+                  <c:v>21642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3518</c:v>
+                  <c:v>23781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3940</c:v>
+                  <c:v>26024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4084</c:v>
+                  <c:v>27593</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4296</c:v>
+                  <c:v>29917</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5226</c:v>
+                  <c:v>31966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4572</c:v>
+                  <c:v>33955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5321</c:v>
+                  <c:v>36830</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5222</c:v>
+                  <c:v>38885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5885</c:v>
+                  <c:v>41524</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6191</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8560</c:v>
+                  <c:v>63563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12398</c:v>
+                  <c:v>87383</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16228</c:v>
+                  <c:v>105230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,7 +429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B492-45CE-8421-4B3749B8B8A7}"/>
+              <c16:uniqueId val="{00000000-ABE3-4ABC-9E80-ADA1F1149793}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -549,73 +554,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373</c:v>
+                  <c:v>2521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>693</c:v>
+                  <c:v>4613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1019</c:v>
+                  <c:v>6734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1384</c:v>
+                  <c:v>8901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1800</c:v>
+                  <c:v>11614</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1863</c:v>
+                  <c:v>13312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5152</c:v>
+                  <c:v>15180</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2675</c:v>
+                  <c:v>18363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2604</c:v>
+                  <c:v>19667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3366</c:v>
+                  <c:v>22294</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3627</c:v>
+                  <c:v>24254</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3994</c:v>
+                  <c:v>25839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4072</c:v>
+                  <c:v>28471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4338</c:v>
+                  <c:v>30996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5211</c:v>
+                  <c:v>32717</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4454</c:v>
+                  <c:v>34988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5249</c:v>
+                  <c:v>37128</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5265</c:v>
+                  <c:v>38966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5776</c:v>
+                  <c:v>41300</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6200</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8665</c:v>
+                  <c:v>65935</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12389</c:v>
+                  <c:v>91123</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15925</c:v>
+                  <c:v>105933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +628,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B492-45CE-8421-4B3749B8B8A7}"/>
+              <c16:uniqueId val="{00000001-ABE3-4ABC-9E80-ADA1F1149793}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -748,73 +753,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1074</c:v>
+                  <c:v>4486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2012</c:v>
+                  <c:v>8720</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2904</c:v>
+                  <c:v>13662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3744</c:v>
+                  <c:v>17707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4486</c:v>
+                  <c:v>20175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5490</c:v>
+                  <c:v>25789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6763</c:v>
+                  <c:v>30782</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6962</c:v>
+                  <c:v>31145</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8057</c:v>
+                  <c:v>34887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8566</c:v>
+                  <c:v>43126</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9944</c:v>
+                  <c:v>47236</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10796</c:v>
+                  <c:v>56153</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10937</c:v>
+                  <c:v>51518</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12286</c:v>
+                  <c:v>53532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13928</c:v>
+                  <c:v>60980</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14329</c:v>
+                  <c:v>68271</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15217</c:v>
+                  <c:v>74268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15121</c:v>
+                  <c:v>78545</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15778</c:v>
+                  <c:v>82307</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17787</c:v>
+                  <c:v>90491</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25251</c:v>
+                  <c:v>127352</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35825</c:v>
+                  <c:v>161280</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43727</c:v>
+                  <c:v>215227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6A8-452B-913B-B134B4CC3F57}"/>
+              <c16:uniqueId val="{00000002-ABE3-4ABC-9E80-ADA1F1149793}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -881,7 +886,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,7 +894,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B492-45CE-8421-4B3749B8B8A7}"/>
+              <c16:uniqueId val="{00000003-ABE3-4ABC-9E80-ADA1F1149793}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -972,7 +977,1767 @@
         <c:axId val="1563906416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563908080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8815364987051813E-2"/>
+          <c:y val="1.3468013468013467E-2"/>
+          <c:w val="0.96170005167596539"/>
+          <c:h val="0.97306397306397308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>signed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12878</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19582</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21047</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22850</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54079</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A256-47FC-A7A1-DFFA816BA201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>unsigned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$C$3:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7720</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9407</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14530</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20680</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20650</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22887</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34470</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43729</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A256-47FC-A7A1-DFFA816BA201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>blind</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6940</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12589</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13837</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15746</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17927</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20788</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33885</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A256-47FC-A7A1-DFFA816BA201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>capacity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$A$29:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (2)'!$B$29:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A256-47FC-A7A1-DFFA816BA201}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563908080"/>
+        <c:axId val="1563906416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563908080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5100000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563906416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563906416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563908080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.8815364987051813E-2"/>
+          <c:y val="1.3468013468013467E-2"/>
+          <c:w val="0.96170005167596539"/>
+          <c:h val="0.97306397306397308"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>signed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9155</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14181</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30203</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A6E-4995-A31C-5A8AE797E111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>unsigned</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$C$3:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13183</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16187</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17183</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18181</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19180</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20187</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A6E-4995-A31C-5A8AE797E111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>blind</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15183</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17182</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19185</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30194</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8A6E-4995-A31C-5A8AE797E111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>capacity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$A$29:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare tests (3)'!$B$29:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8A6E-4995-A31C-5A8AE797E111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1563908080"/>
+        <c:axId val="1563906416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1563908080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
           <c:max val="50000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563906416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1563906416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1119,6 +2884,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1635,27 +3480,1145 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9227BE-F6DC-4166-B29B-89AEBDFAA9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE65D66-ED50-4300-A9F2-9E4C29427D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F90C73A-7480-4307-9647-0F5AEFCB2A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,11 +4903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9944151-5C00-41F7-A676-491BCBC23B5E}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +4920,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1965,22 +4928,22 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2010,21 +4973,21 @@
         <v>100000</v>
       </c>
       <c r="B4" s="5">
-        <v>375</v>
+        <v>2451</v>
       </c>
       <c r="C4" s="5">
-        <v>373</v>
+        <v>2521</v>
       </c>
       <c r="D4" s="5">
-        <v>1074</v>
+        <v>4486</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" ref="E4:E26" si="0">(B4-C4)/C4</f>
-        <v>5.3619302949061663E-3</v>
+        <v>-2.7766759222530742E-2</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" ref="F4:F26" si="1">(B4-D4)/D4</f>
-        <v>-0.65083798882681565</v>
+        <v>-0.45363352652697281</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -2034,21 +4997,21 @@
         <v>200000</v>
       </c>
       <c r="B5" s="5">
-        <v>710</v>
+        <v>4622</v>
       </c>
       <c r="C5" s="5">
-        <v>693</v>
+        <v>4613</v>
       </c>
       <c r="D5" s="5">
-        <v>2012</v>
+        <v>8720</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="0"/>
-        <v>2.4531024531024532E-2</v>
+        <v>1.9510080208107522E-3</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>-0.64711729622266401</v>
+        <v>-0.46995412844036699</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -2058,21 +5021,21 @@
         <v>300000</v>
       </c>
       <c r="B6" s="5">
-        <v>990</v>
+        <v>6703</v>
       </c>
       <c r="C6" s="5">
-        <v>1019</v>
+        <v>6734</v>
       </c>
       <c r="D6" s="5">
-        <v>2904</v>
+        <v>13662</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>-2.8459273797841019E-2</v>
+        <v>-4.6035046035046035E-3</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65909090909090906</v>
+        <v>-0.50936905284731371</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -2082,21 +5045,21 @@
         <v>400000</v>
       </c>
       <c r="B7" s="5">
-        <v>1407</v>
+        <v>8841</v>
       </c>
       <c r="C7" s="5">
-        <v>1384</v>
+        <v>8901</v>
       </c>
       <c r="D7" s="5">
-        <v>3744</v>
+        <v>17707</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" si="0"/>
-        <v>1.6618497109826588E-2</v>
+        <v>-6.740815638692282E-3</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="1"/>
-        <v>-0.62419871794871795</v>
+        <v>-0.50070593550573217</v>
       </c>
       <c r="G7" s="12"/>
     </row>
@@ -2106,21 +5069,21 @@
         <v>500000</v>
       </c>
       <c r="B8" s="5">
-        <v>1729</v>
+        <v>11655</v>
       </c>
       <c r="C8" s="5">
-        <v>1800</v>
+        <v>11614</v>
       </c>
       <c r="D8" s="5">
-        <v>4486</v>
+        <v>20175</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="0"/>
-        <v>-3.9444444444444442E-2</v>
+        <v>3.5302221456862408E-3</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="1"/>
-        <v>-0.61457868925546144</v>
+        <v>-0.42230483271375463</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -2130,21 +5093,21 @@
         <v>600000</v>
       </c>
       <c r="B9" s="5">
-        <v>1873</v>
+        <v>13043</v>
       </c>
       <c r="C9" s="5">
-        <v>1863</v>
+        <v>13312</v>
       </c>
       <c r="D9" s="5">
-        <v>5490</v>
+        <v>25789</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" si="0"/>
-        <v>5.3676865271068174E-3</v>
+        <v>-2.0207331730769232E-2</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65883424408014568</v>
+        <v>-0.49424173097056884</v>
       </c>
       <c r="G9" s="12"/>
     </row>
@@ -2154,21 +5117,21 @@
         <v>700000</v>
       </c>
       <c r="B10" s="5">
-        <v>3506</v>
+        <v>15107</v>
       </c>
       <c r="C10" s="5">
-        <v>5152</v>
+        <v>15180</v>
       </c>
       <c r="D10" s="5">
-        <v>6763</v>
+        <v>30782</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="0"/>
-        <v>-0.31948757763975155</v>
+        <v>-4.8089591567852434E-3</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="1"/>
-        <v>-0.48159100990684606</v>
+        <v>-0.50922617113897728</v>
       </c>
       <c r="G10" s="12"/>
     </row>
@@ -2178,21 +5141,21 @@
         <v>800000</v>
       </c>
       <c r="B11" s="5">
-        <v>2458</v>
+        <v>17852</v>
       </c>
       <c r="C11" s="5">
-        <v>2675</v>
+        <v>18363</v>
       </c>
       <c r="D11" s="5">
-        <v>6962</v>
+        <v>31145</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" si="0"/>
-        <v>-8.1121495327102805E-2</v>
+        <v>-2.7827696999400971E-2</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="1"/>
-        <v>-0.64694053432921572</v>
+        <v>-0.42681008187510033</v>
       </c>
       <c r="G11" s="12"/>
     </row>
@@ -2202,21 +5165,21 @@
         <v>900000</v>
       </c>
       <c r="B12" s="5">
-        <v>2590</v>
+        <v>19256</v>
       </c>
       <c r="C12" s="5">
-        <v>2604</v>
+        <v>19667</v>
       </c>
       <c r="D12" s="5">
-        <v>8057</v>
+        <v>34887</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="0"/>
-        <v>-5.3763440860215058E-3</v>
+        <v>-2.0897950882188439E-2</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="1"/>
-        <v>-0.67854039965247614</v>
+        <v>-0.44804655029093932</v>
       </c>
       <c r="G12" s="12"/>
     </row>
@@ -2226,21 +5189,21 @@
         <v>1000000</v>
       </c>
       <c r="B13" s="5">
-        <v>3328</v>
+        <v>21642</v>
       </c>
       <c r="C13" s="5">
-        <v>3366</v>
+        <v>22294</v>
       </c>
       <c r="D13" s="5">
-        <v>8566</v>
+        <v>43126</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>-1.1289364230540701E-2</v>
+        <v>-2.9245536915762087E-2</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="1"/>
-        <v>-0.61148727527434044</v>
+        <v>-0.49816815841951489</v>
       </c>
       <c r="G13" s="12"/>
     </row>
@@ -2250,21 +5213,21 @@
         <v>1100000</v>
       </c>
       <c r="B14" s="5">
-        <v>3518</v>
+        <v>23781</v>
       </c>
       <c r="C14" s="5">
-        <v>3627</v>
+        <v>24254</v>
       </c>
       <c r="D14" s="5">
-        <v>9944</v>
+        <v>47236</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="0"/>
-        <v>-3.0052384891094568E-2</v>
+        <v>-1.950193782468871E-2</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="1"/>
-        <v>-0.6462188254223652</v>
+        <v>-0.49654924210348039</v>
       </c>
       <c r="G14" s="12"/>
     </row>
@@ -2274,21 +5237,21 @@
         <v>1200000</v>
       </c>
       <c r="B15" s="5">
-        <v>3940</v>
+        <v>26024</v>
       </c>
       <c r="C15" s="5">
-        <v>3994</v>
+        <v>25839</v>
       </c>
       <c r="D15" s="5">
-        <v>10796</v>
+        <v>56153</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="0"/>
-        <v>-1.3520280420630946E-2</v>
+        <v>7.1597198033979646E-3</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="1"/>
-        <v>-0.63505001852537979</v>
+        <v>-0.5365519206453796</v>
       </c>
       <c r="G15" s="12"/>
     </row>
@@ -2298,21 +5261,21 @@
         <v>1300000</v>
       </c>
       <c r="B16" s="5">
-        <v>4084</v>
+        <v>27593</v>
       </c>
       <c r="C16" s="5">
-        <v>4072</v>
+        <v>28471</v>
       </c>
       <c r="D16" s="5">
-        <v>10937</v>
+        <v>51518</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="0"/>
-        <v>2.9469548133595285E-3</v>
+        <v>-3.0838396965333147E-2</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="1"/>
-        <v>-0.62658864405229953</v>
+        <v>-0.46440079195620948</v>
       </c>
       <c r="G16" s="12"/>
     </row>
@@ -2322,21 +5285,21 @@
         <v>1400000</v>
       </c>
       <c r="B17" s="5">
-        <v>4296</v>
+        <v>29917</v>
       </c>
       <c r="C17" s="5">
-        <v>4338</v>
+        <v>30996</v>
       </c>
       <c r="D17" s="5">
-        <v>12286</v>
+        <v>53532</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="0"/>
-        <v>-9.6818810511756573E-3</v>
+        <v>-3.4810943347528711E-2</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="1"/>
-        <v>-0.6503337131694612</v>
+        <v>-0.44113801090936261</v>
       </c>
       <c r="G17" s="12"/>
     </row>
@@ -2346,21 +5309,21 @@
         <v>1500000</v>
       </c>
       <c r="B18" s="5">
-        <v>5226</v>
+        <v>31966</v>
       </c>
       <c r="C18" s="5">
-        <v>5211</v>
+        <v>32717</v>
       </c>
       <c r="D18" s="5">
-        <v>13928</v>
+        <v>60980</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="0"/>
-        <v>2.8785261945883708E-3</v>
+        <v>-2.2954427361921936E-2</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="1"/>
-        <v>-0.62478460654796097</v>
+        <v>-0.47579534273532303</v>
       </c>
       <c r="G18" s="12"/>
     </row>
@@ -2370,21 +5333,21 @@
         <v>1600000</v>
       </c>
       <c r="B19" s="5">
-        <v>4572</v>
+        <v>33955</v>
       </c>
       <c r="C19" s="5">
-        <v>4454</v>
+        <v>34988</v>
       </c>
       <c r="D19" s="5">
-        <v>14329</v>
+        <v>68271</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="0"/>
-        <v>2.6493039964077234E-2</v>
+        <v>-2.9524408368583513E-2</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="1"/>
-        <v>-0.68092679182078297</v>
+        <v>-0.50264387514464415</v>
       </c>
       <c r="G19" s="12"/>
     </row>
@@ -2394,21 +5357,21 @@
         <v>1700000</v>
       </c>
       <c r="B20" s="5">
-        <v>5321</v>
+        <v>36830</v>
       </c>
       <c r="C20" s="5">
-        <v>5249</v>
+        <v>37128</v>
       </c>
       <c r="D20" s="5">
-        <v>15217</v>
+        <v>74268</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="0"/>
-        <v>1.3716898456848923E-2</v>
+        <v>-8.0262874380521432E-3</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65032529407899065</v>
+        <v>-0.50409328378305596</v>
       </c>
       <c r="G20" s="12"/>
     </row>
@@ -2418,21 +5381,21 @@
         <v>1800000</v>
       </c>
       <c r="B21" s="5">
-        <v>5222</v>
+        <v>38885</v>
       </c>
       <c r="C21" s="5">
-        <v>5265</v>
+        <v>38966</v>
       </c>
       <c r="D21" s="5">
-        <v>15121</v>
+        <v>78545</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="0"/>
-        <v>-8.1671415004748345E-3</v>
+        <v>-2.0787353077041525E-3</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65465247007473049</v>
+        <v>-0.50493347762429186</v>
       </c>
       <c r="G21" s="12"/>
     </row>
@@ -2442,21 +5405,21 @@
         <v>1900000</v>
       </c>
       <c r="B22" s="5">
-        <v>5885</v>
+        <v>41524</v>
       </c>
       <c r="C22" s="5">
-        <v>5776</v>
+        <v>41300</v>
       </c>
       <c r="D22" s="5">
-        <v>15778</v>
+        <v>82307</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="0"/>
-        <v>1.8871191135734072E-2</v>
+        <v>5.4237288135593224E-3</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="1"/>
-        <v>-0.62701229560147043</v>
+        <v>-0.49549856026826394</v>
       </c>
       <c r="G22" s="12"/>
     </row>
@@ -2466,21 +5429,21 @@
         <v>2000000</v>
       </c>
       <c r="B23" s="5">
-        <v>6191</v>
+        <v>42597</v>
       </c>
       <c r="C23" s="5">
-        <v>6200</v>
+        <v>42867</v>
       </c>
       <c r="D23" s="5">
-        <v>17787</v>
+        <v>90491</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="0"/>
-        <v>-1.4516129032258066E-3</v>
+        <v>-6.2985513331933656E-3</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65193680778096363</v>
+        <v>-0.52926810401034352</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -2489,21 +5452,21 @@
         <v>3000000</v>
       </c>
       <c r="B24" s="5">
-        <v>8560</v>
+        <v>63563</v>
       </c>
       <c r="C24" s="5">
-        <v>8665</v>
+        <v>65935</v>
       </c>
       <c r="D24" s="5">
-        <v>25251</v>
+        <v>127352</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="0"/>
-        <v>-1.2117714945181766E-2</v>
+        <v>-3.5974823689997722E-2</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="1"/>
-        <v>-0.66100352461288658</v>
+        <v>-0.5008873044789246</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -2512,21 +5475,21 @@
         <v>4000000</v>
       </c>
       <c r="B25" s="5">
-        <v>12398</v>
+        <v>87383</v>
       </c>
       <c r="C25" s="5">
-        <v>12389</v>
+        <v>91123</v>
       </c>
       <c r="D25" s="5">
-        <v>35825</v>
+        <v>161280</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" si="0"/>
-        <v>7.264508838485754E-4</v>
+        <v>-4.1043424821395259E-2</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="1"/>
-        <v>-0.65392882065596647</v>
+        <v>-0.45819072420634921</v>
       </c>
       <c r="G25" s="12"/>
     </row>
@@ -2535,21 +5498,21 @@
         <v>5000000</v>
       </c>
       <c r="B26" s="5">
-        <v>16228</v>
+        <v>105230</v>
       </c>
       <c r="C26" s="5">
-        <v>15925</v>
+        <v>105933</v>
       </c>
       <c r="D26" s="5">
-        <v>43727</v>
+        <v>215227</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="0"/>
-        <v>1.9026687598116168E-2</v>
+        <v>-6.636270095248884E-3</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="1"/>
-        <v>-0.62887918219864158</v>
+        <v>-0.51107435405409174</v>
       </c>
       <c r="G26" s="12"/>
     </row>
@@ -2573,6 +5536,1779 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1048576</v>
+      </c>
+      <c r="B30">
+        <v>250000</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABCB5B7-1E05-4FA1-8586-2A79189AFC3E}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>A3+100000</f>
+        <v>100000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1268</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1268</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1261</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E26" si="0">(B4-C4)/C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F26" si="1">(B4-D4)/D4</f>
+        <v>5.5511498810467885E-3</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A13" si="2">A4+100000</f>
+        <v>200000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2470</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2499</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2430</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.1604641856742696E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>1.646090534979424E-2</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3673</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3657</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3577</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>4.375170905113481E-3</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>2.6838132513279284E-2</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="2"/>
+        <v>400000</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4888</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4902</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4759</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.8559771521827824E-3</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>2.710653498634167E-2</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5504</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5605</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5804</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.8019625334522747E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.1688490696071676E-2</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="2"/>
+        <v>600000</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7045</v>
+      </c>
+      <c r="C9" s="5">
+        <v>7039</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6940</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>8.5239380593834352E-4</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5129682997118156E-2</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="2"/>
+        <v>700000</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7793</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7720</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7990</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>9.4559585492227979E-3</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.46558197747184E-2</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="2"/>
+        <v>800000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9455</v>
+      </c>
+      <c r="C11" s="5">
+        <v>9407</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9160</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>5.1025831827362601E-3</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>3.2205240174672488E-2</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10091</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10096</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10301</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.9524564183835184E-4</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.0386370255315017E-2</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11071</v>
+      </c>
+      <c r="C13" s="5">
+        <v>11125</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11365</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.8539325842696631E-3</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.5868895732512099E-2</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f>A13+100000</f>
+        <v>1100000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12878</v>
+      </c>
+      <c r="C14" s="5">
+        <v>12945</v>
+      </c>
+      <c r="D14" s="5">
+        <v>12589</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.1757435303205869E-3</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2956549368496306E-2</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" ref="A15:A23" si="3">A14+100000</f>
+        <v>1200000</v>
+      </c>
+      <c r="B15" s="5">
+        <v>13375</v>
+      </c>
+      <c r="C15" s="5">
+        <v>13368</v>
+      </c>
+      <c r="D15" s="5">
+        <v>13837</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>5.2363853979652897E-4</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>-3.3388740333887404E-2</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="3"/>
+        <v>1300000</v>
+      </c>
+      <c r="B16" s="5">
+        <v>14526</v>
+      </c>
+      <c r="C16" s="5">
+        <v>14530</v>
+      </c>
+      <c r="D16" s="5">
+        <v>14522</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.7529249827942191E-4</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7544415369783778E-4</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="3"/>
+        <v>1400000</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16119</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16192</v>
+      </c>
+      <c r="D17" s="5">
+        <v>15746</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.508399209486166E-3</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>2.3688555823701257E-2</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="3"/>
+        <v>1500000</v>
+      </c>
+      <c r="B18" s="5">
+        <v>16098</v>
+      </c>
+      <c r="C18" s="5">
+        <v>16033</v>
+      </c>
+      <c r="D18" s="5">
+        <v>16815</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>4.0541383396744219E-3</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.2640499553969667E-2</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="3"/>
+        <v>1600000</v>
+      </c>
+      <c r="B19" s="5">
+        <v>18305</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18524</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17927</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.1822500539840207E-2</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1085513471300273E-2</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="3"/>
+        <v>1700000</v>
+      </c>
+      <c r="B20" s="5">
+        <v>19582</v>
+      </c>
+      <c r="C20" s="5">
+        <v>19799</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20788</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.0960149502500125E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.801423898402925E-2</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="3"/>
+        <v>1800000</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20594</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20680</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20251</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.158607350096712E-3</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.6937435188385759E-2</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="3"/>
+        <v>1900000</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21047</v>
+      </c>
+      <c r="C22" s="5">
+        <v>20650</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21194</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9225181598062954E-2</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>-6.9359252618665657E-3</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="3"/>
+        <v>2000000</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22850</v>
+      </c>
+      <c r="C23" s="5">
+        <v>22887</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22222</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.6166382662646918E-3</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.826028260282603E-2</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="B24" s="5">
+        <v>34697</v>
+      </c>
+      <c r="C24" s="5">
+        <v>34470</v>
+      </c>
+      <c r="D24" s="5">
+        <v>33885</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>6.585436611546272E-3</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>2.3963405636712409E-2</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="B25" s="5">
+        <v>43726</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43729</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44411</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>-6.8604358663587093E-5</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.5424106640246786E-2</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="B26" s="5">
+        <v>54079</v>
+      </c>
+      <c r="C26" s="5">
+        <v>54105</v>
+      </c>
+      <c r="D26" s="5">
+        <v>55337</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.8054708437297844E-4</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.2733433326707266E-2</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>50000</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0E7F6F-C493-4774-B5A7-D83555BFD4EC}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <f>A3+1000</f>
+        <v>1000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1184</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1177</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1181</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E26" si="0">(B4-C4)/C4</f>
+        <v>5.9473237043330502E-3</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F26" si="1">(B4-D4)/D4</f>
+        <v>2.5402201524132089E-3</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A23" si="2">A4+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2150</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2158</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2163</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>-3.7071362372567192E-3</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="1"/>
+        <v>-6.0101710587147483E-3</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3161</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3161</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3166</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.5792798483891346E-3</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4156</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4159</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4162</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.2132724212551095E-4</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.4416146083613647E-3</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5156</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5165</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5155</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.7424975798644724E-3</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9398642095053346E-4</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <f t="shared" si="2"/>
+        <v>6000</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6152</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6155</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6150</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>-4.8740861088545896E-4</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>3.2520325203252032E-4</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="2"/>
+        <v>7000</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7169</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7171</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7162</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.789011295495747E-4</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>9.7738061993856459E-4</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8159</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8161</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8160</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.4506800637176816E-4</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.2254901960784314E-4</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>9155</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9160</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9161</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.4585152838427945E-4</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>-6.5495033293308589E-4</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10175</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10168</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10183</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>6.8843430369787569E-4</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.8562309731906117E-4</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="B14" s="5">
+        <v>11178</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11172</v>
+      </c>
+      <c r="D14" s="5">
+        <v>11169</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>5.3705692803437163E-4</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>8.0580177276390005E-4</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <f t="shared" si="2"/>
+        <v>12000</v>
+      </c>
+      <c r="B15" s="5">
+        <v>12181</v>
+      </c>
+      <c r="C15" s="5">
+        <v>12184</v>
+      </c>
+      <c r="D15" s="5">
+        <v>12178</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.4622455679579775E-4</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4634586960091967E-4</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <f t="shared" si="2"/>
+        <v>13000</v>
+      </c>
+      <c r="B16" s="5">
+        <v>13174</v>
+      </c>
+      <c r="C16" s="5">
+        <v>13183</v>
+      </c>
+      <c r="D16" s="5">
+        <v>13184</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>-6.8269741333535619E-4</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>-7.5849514563106795E-4</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <f t="shared" si="2"/>
+        <v>14000</v>
+      </c>
+      <c r="B17" s="5">
+        <v>14181</v>
+      </c>
+      <c r="C17" s="5">
+        <v>14182</v>
+      </c>
+      <c r="D17" s="5">
+        <v>14173</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>-7.0511916513890853E-5</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>5.6445353841811893E-4</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="B18" s="5">
+        <v>15179</v>
+      </c>
+      <c r="C18" s="5">
+        <v>15183</v>
+      </c>
+      <c r="D18" s="5">
+        <v>15183</v>
+      </c>
+      <c r="E18" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.6345254561022194E-4</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>-2.6345254561022194E-4</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="B19" s="5">
+        <v>16178</v>
+      </c>
+      <c r="C19" s="5">
+        <v>16187</v>
+      </c>
+      <c r="D19" s="5">
+        <v>16179</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.5600172978315934E-4</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>-6.1808517213672039E-5</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="B20" s="5">
+        <v>17182</v>
+      </c>
+      <c r="C20" s="5">
+        <v>17183</v>
+      </c>
+      <c r="D20" s="5">
+        <v>17182</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.8197055229005409E-5</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+      <c r="B21" s="5">
+        <v>18171</v>
+      </c>
+      <c r="C21" s="5">
+        <v>18181</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18186</v>
+      </c>
+      <c r="E21" s="14">
+        <f t="shared" si="0"/>
+        <v>-5.5002475111380015E-4</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>-8.2481029363246452E-4</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="2"/>
+        <v>19000</v>
+      </c>
+      <c r="B22" s="5">
+        <v>19176</v>
+      </c>
+      <c r="C22" s="5">
+        <v>19180</v>
+      </c>
+      <c r="D22" s="5">
+        <v>19185</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.0855057351407716E-4</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.6911649726348711E-4</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20184</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20187</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20183</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>-1.4861049190072819E-4</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9546648169251348E-5</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f>A23+10000</f>
+        <v>30000</v>
+      </c>
+      <c r="B24" s="5">
+        <v>30203</v>
+      </c>
+      <c r="C24" s="5">
+        <v>30199</v>
+      </c>
+      <c r="D24" s="5">
+        <v>30194</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3245471704361072E-4</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>2.9807246472809165E-4</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" ref="A25:A26" si="3">A24+10000</f>
+        <v>40000</v>
+      </c>
+      <c r="B25" s="5">
+        <v>40204</v>
+      </c>
+      <c r="C25" s="5">
+        <v>40197</v>
+      </c>
+      <c r="D25" s="5">
+        <v>40199</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7414234893151231E-4</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="1"/>
+        <v>1.2438120351252518E-4</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+      <c r="B26" s="5">
+        <v>50191</v>
+      </c>
+      <c r="C26" s="5">
+        <v>50181</v>
+      </c>
+      <c r="D26" s="5">
+        <v>50187</v>
+      </c>
+      <c r="E26" s="14">
+        <f t="shared" si="0"/>
+        <v>1.9927861142663558E-4</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="1"/>
+        <v>7.9701914838503998E-5</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>8192</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>8192</v>
       </c>
       <c r="B30">
         <v>50000</v>
